--- a/run.xlsx
+++ b/run.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr date1904="1" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02206C8-1953-2047-97C7-EB69C519C43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE77203-5DA8-F247-9E48-2EF8C8D6B61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="460" windowWidth="18580" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +86,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,7 +115,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,16 +613,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
